--- a/output/archivos/single-ACTUALIZADO.xlsx
+++ b/output/archivos/single-ACTUALIZADO.xlsx
@@ -482,7 +482,7 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$ 453,47</t>
+          <t>$ 601,56</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
